--- a/battleworld/Excel/MotionEffect_效果表.xlsx
+++ b/battleworld/Excel/MotionEffect_效果表.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB99199-B9E8-487D-B216-47F730F9B175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -427,14 +431,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -446,162 +444,19 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,194 +493,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -833,257 +502,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1154,61 +581,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1466,25 +849,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -1503,7 +886,7 @@
     <col min="18" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:17">
+    <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:17">
+    <row r="2" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="102" customHeight="1" spans="1:21">
+    <row r="3" spans="1:21" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1666,12 +1049,12 @@
       <c r="T3" s="16"/>
       <c r="U3" s="16"/>
     </row>
-    <row r="4" ht="29" customHeight="1" spans="15:17">
+    <row r="4" spans="1:21" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:21">
+    <row r="5" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1679,7 +1062,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="3">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3">
@@ -1716,7 +1099,7 @@
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:21">
+    <row r="6" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1724,7 +1107,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="3">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3">
@@ -1761,7 +1144,7 @@
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:21">
+    <row r="7" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1769,7 +1152,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3">
@@ -1810,7 +1193,7 @@
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:21">
+    <row r="8" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1849,7 +1232,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="13">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q8" s="13">
         <v>0.25</v>
@@ -1859,7 +1242,7 @@
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:21">
+    <row r="9" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1906,7 +1289,7 @@
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:21">
+    <row r="10" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1953,7 +1336,7 @@
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
     </row>
-    <row r="11" ht="25" customHeight="1" spans="1:21">
+    <row r="11" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -2000,7 +1383,7 @@
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
     </row>
-    <row r="12" ht="25" customHeight="1" spans="1:21">
+    <row r="12" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -2047,7 +1430,7 @@
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
     </row>
-    <row r="13" ht="25" customHeight="1" spans="1:21">
+    <row r="13" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -2094,7 +1477,7 @@
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
     </row>
-    <row r="14" ht="25" customHeight="1" spans="1:21">
+    <row r="14" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -2133,7 +1516,7 @@
         <v>6</v>
       </c>
       <c r="P14" s="13">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q14" s="13">
         <v>0.25</v>
@@ -2143,7 +1526,7 @@
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
     </row>
-    <row r="15" ht="25" customHeight="1" spans="1:21">
+    <row r="15" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -2192,7 +1575,7 @@
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
     </row>
-    <row r="16" ht="25" customHeight="1" spans="1:21">
+    <row r="16" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -2243,7 +1626,7 @@
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
     </row>
-    <row r="17" ht="25" customHeight="1" spans="1:21">
+    <row r="17" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -2284,7 +1667,7 @@
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
     </row>
-    <row r="18" ht="25" customHeight="1" spans="1:21">
+    <row r="18" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -2333,7 +1716,7 @@
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
     </row>
-    <row r="19" ht="25" customHeight="1" spans="1:21">
+    <row r="19" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -2374,7 +1757,7 @@
         <v>6</v>
       </c>
       <c r="P19" s="13">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q19" s="13">
         <v>0.25</v>
@@ -2384,7 +1767,7 @@
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
     </row>
-    <row r="20" ht="25" customHeight="1" spans="1:21">
+    <row r="20" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -2433,7 +1816,7 @@
       <c r="T20" s="17"/>
       <c r="U20" s="17"/>
     </row>
-    <row r="21" ht="25" customHeight="1" spans="1:21">
+    <row r="21" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -2482,7 +1865,7 @@
       <c r="T21" s="17"/>
       <c r="U21" s="17"/>
     </row>
-    <row r="22" ht="25" customHeight="1" spans="1:21">
+    <row r="22" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -2533,7 +1916,7 @@
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="1:21">
+    <row r="23" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2576,7 +1959,7 @@
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
     </row>
-    <row r="24" ht="25" customHeight="1" spans="1:21">
+    <row r="24" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2615,7 +1998,7 @@
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
     </row>
-    <row r="25" ht="25" customHeight="1" spans="1:21">
+    <row r="25" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2666,7 +2049,7 @@
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
     </row>
-    <row r="26" ht="25" customHeight="1" spans="1:21">
+    <row r="26" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -2674,7 +2057,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5">
@@ -2711,7 +2094,7 @@
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
     </row>
-    <row r="27" ht="25" customHeight="1" spans="1:21">
+    <row r="27" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -2719,7 +2102,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="5">
@@ -2756,7 +2139,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
     </row>
-    <row r="28" ht="25" customHeight="1" spans="1:21">
+    <row r="28" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -2764,7 +2147,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="5">
@@ -2799,7 +2182,7 @@
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
     </row>
-    <row r="29" ht="25" customHeight="1" spans="1:21">
+    <row r="29" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -2844,7 +2227,7 @@
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
     </row>
-    <row r="30" ht="25" customHeight="1" spans="1:21">
+    <row r="30" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -2895,7 +2278,7 @@
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
     </row>
-    <row r="31" ht="25" customHeight="1" spans="1:21">
+    <row r="31" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -2940,7 +2323,7 @@
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
     </row>
-    <row r="32" ht="25" customHeight="1" spans="1:21">
+    <row r="32" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -2989,7 +2372,7 @@
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" ht="25" customHeight="1" spans="1:21">
+    <row r="33" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -3040,7 +2423,7 @@
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
     </row>
-    <row r="34" ht="25" customHeight="1" spans="1:21">
+    <row r="34" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -3079,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="P34" s="13">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q34" s="13">
         <v>0.25</v>
@@ -3089,7 +2472,7 @@
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
     </row>
-    <row r="35" ht="25" customHeight="1" spans="1:21">
+    <row r="35" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>31</v>
       </c>
@@ -3132,7 +2515,7 @@
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
     </row>
-    <row r="36" ht="25" customHeight="1" spans="1:21">
+    <row r="36" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>32</v>
       </c>
@@ -3175,7 +2558,7 @@
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
     </row>
-    <row r="37" ht="25" customHeight="1" spans="1:21">
+    <row r="37" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>33</v>
       </c>
@@ -3220,7 +2603,7 @@
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
     </row>
-    <row r="38" ht="25" customHeight="1" spans="1:21">
+    <row r="38" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>34</v>
       </c>
@@ -3265,7 +2648,7 @@
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
     </row>
-    <row r="39" ht="25" customHeight="1" spans="1:21">
+    <row r="39" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>35</v>
       </c>
@@ -3310,7 +2693,7 @@
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
     </row>
-    <row r="40" ht="25" customHeight="1" spans="1:21">
+    <row r="40" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>36</v>
       </c>
@@ -3355,7 +2738,7 @@
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
     </row>
-    <row r="41" ht="25" customHeight="1" spans="1:21">
+    <row r="41" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>37</v>
       </c>
@@ -3406,7 +2789,7 @@
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
     </row>
-    <row r="42" ht="25" customHeight="1" spans="1:21">
+    <row r="42" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>38</v>
       </c>
@@ -3457,7 +2840,7 @@
       <c r="T42" s="18"/>
       <c r="U42" s="18"/>
     </row>
-    <row r="43" ht="25" customHeight="1" spans="1:21">
+    <row r="43" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>39</v>
       </c>
@@ -3498,7 +2881,7 @@
         <v>10</v>
       </c>
       <c r="P43" s="13">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Q43" s="13">
         <v>0.25</v>
@@ -3508,7 +2891,7 @@
       <c r="T43" s="18"/>
       <c r="U43" s="18"/>
     </row>
-    <row r="44" ht="25" customHeight="1" spans="1:21">
+    <row r="44" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>40</v>
       </c>
@@ -3547,7 +2930,7 @@
       <c r="T44" s="18"/>
       <c r="U44" s="18"/>
     </row>
-    <row r="45" ht="25" customHeight="1" spans="1:21">
+    <row r="45" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>41</v>
       </c>
@@ -3582,7 +2965,7 @@
         <v>10</v>
       </c>
       <c r="P45" s="13">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q45" s="13">
         <v>0.125</v>
@@ -3592,7 +2975,7 @@
       <c r="T45" s="18"/>
       <c r="U45" s="18"/>
     </row>
-    <row r="46" ht="25" customHeight="1" spans="1:21">
+    <row r="46" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>42</v>
       </c>
@@ -3643,7 +3026,7 @@
       <c r="T46" s="18"/>
       <c r="U46" s="18"/>
     </row>
-    <row r="47" ht="25" customHeight="1" spans="1:21">
+    <row r="47" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>43</v>
       </c>
@@ -3682,7 +3065,7 @@
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
     </row>
-    <row r="48" ht="25" customHeight="1" spans="1:21">
+    <row r="48" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>44</v>
       </c>
@@ -3721,7 +3104,7 @@
       <c r="T48" s="19"/>
       <c r="U48" s="19"/>
     </row>
-    <row r="49" ht="25" customHeight="1" spans="1:21">
+    <row r="49" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>45</v>
       </c>
@@ -3756,7 +3139,7 @@
       <c r="N49" s="8"/>
       <c r="O49" s="7"/>
       <c r="P49" s="13">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q49" s="13">
         <v>0.25</v>
@@ -3766,7 +3149,7 @@
       <c r="T49" s="19"/>
       <c r="U49" s="19"/>
     </row>
-    <row r="50" ht="25" customHeight="1" spans="1:21">
+    <row r="50" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>46</v>
       </c>
@@ -3805,7 +3188,7 @@
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
     </row>
-    <row r="51" ht="25" customHeight="1" spans="1:21">
+    <row r="51" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>47</v>
       </c>
@@ -3844,7 +3227,7 @@
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
     </row>
-    <row r="52" ht="25" customHeight="1" spans="1:21">
+    <row r="52" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>48</v>
       </c>
@@ -3883,7 +3266,7 @@
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
     </row>
-    <row r="53" ht="25" customHeight="1" spans="1:21">
+    <row r="53" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>49</v>
       </c>
@@ -3922,7 +3305,7 @@
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
     </row>
-    <row r="54" ht="25" customHeight="1" spans="1:21">
+    <row r="54" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>50</v>
       </c>
@@ -3963,7 +3346,7 @@
       <c r="T54" s="19"/>
       <c r="U54" s="19"/>
     </row>
-    <row r="55" ht="25" customHeight="1" spans="1:21">
+    <row r="55" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>51</v>
       </c>
@@ -4006,7 +3389,7 @@
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
     </row>
-    <row r="56" ht="25" customHeight="1" spans="1:21">
+    <row r="56" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>52</v>
       </c>
@@ -4045,7 +3428,7 @@
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
     </row>
-    <row r="57" ht="25" customHeight="1" spans="1:21">
+    <row r="57" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>53</v>
       </c>
@@ -4086,7 +3469,7 @@
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
     </row>
-    <row r="58" ht="25" customHeight="1" spans="1:21">
+    <row r="58" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>54</v>
       </c>
@@ -4129,7 +3512,7 @@
       <c r="T58" s="19"/>
       <c r="U58" s="19"/>
     </row>
-    <row r="59" ht="25" customHeight="1" spans="1:21">
+    <row r="59" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>55</v>
       </c>
@@ -4172,7 +3555,7 @@
       <c r="T59" s="19"/>
       <c r="U59" s="19"/>
     </row>
-    <row r="60" ht="25" customHeight="1" spans="1:21">
+    <row r="60" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>56</v>
       </c>
@@ -4205,7 +3588,7 @@
         <v>19</v>
       </c>
       <c r="P60" s="13">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q60" s="13">
         <v>0.25</v>
@@ -4215,7 +3598,7 @@
       <c r="T60" s="19"/>
       <c r="U60" s="19"/>
     </row>
-    <row r="61" ht="25" customHeight="1" spans="1:21">
+    <row r="61" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>57</v>
       </c>
@@ -4266,7 +3649,7 @@
       <c r="T61" s="19"/>
       <c r="U61" s="19"/>
     </row>
-    <row r="62" ht="25" customHeight="1" spans="1:21">
+    <row r="62" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>58</v>
       </c>
@@ -4305,7 +3688,7 @@
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
     </row>
-    <row r="63" ht="25" customHeight="1" spans="1:21">
+    <row r="63" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>59</v>
       </c>
@@ -4344,7 +3727,7 @@
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
     </row>
-    <row r="64" ht="25" customHeight="1" spans="1:21">
+    <row r="64" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>60</v>
       </c>
@@ -4386,14 +3769,14 @@
         <v>0.05</v>
       </c>
       <c r="Q64" s="13">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R64" s="19"/>
       <c r="S64" s="19"/>
       <c r="T64" s="19"/>
       <c r="U64" s="19"/>
     </row>
-    <row r="65" ht="21" customHeight="1" spans="1:21">
+    <row r="65" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21">
         <v>61</v>
       </c>
@@ -4401,7 +3784,7 @@
         <v>98</v>
       </c>
       <c r="C65" s="21">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="21">
@@ -4424,7 +3807,7 @@
         <v>23</v>
       </c>
       <c r="P65" s="13">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Q65" s="13">
         <v>0.25</v>
@@ -4434,7 +3817,7 @@
       <c r="T65" s="24"/>
       <c r="U65" s="24"/>
     </row>
-    <row r="66" ht="22" customHeight="1" spans="1:21">
+    <row r="66" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21">
         <v>62</v>
       </c>
@@ -4442,7 +3825,7 @@
         <v>99</v>
       </c>
       <c r="C66" s="21">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="D66" s="22"/>
       <c r="E66" s="21">
@@ -4475,7 +3858,7 @@
       <c r="T66" s="24"/>
       <c r="U66" s="24"/>
     </row>
-    <row r="67" ht="21" customHeight="1" spans="1:21">
+    <row r="67" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21">
         <v>63</v>
       </c>
@@ -4483,7 +3866,7 @@
         <v>100</v>
       </c>
       <c r="C67" s="21">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="21">
@@ -4508,7 +3891,7 @@
         <v>24</v>
       </c>
       <c r="P67" s="13">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="Q67" s="13">
         <v>0.25</v>
@@ -4518,7 +3901,7 @@
       <c r="T67" s="24"/>
       <c r="U67" s="24"/>
     </row>
-    <row r="68" ht="23" customHeight="1" spans="1:21">
+    <row r="68" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21">
         <v>64</v>
       </c>
@@ -4567,7 +3950,7 @@
       <c r="T68" s="24"/>
       <c r="U68" s="24"/>
     </row>
-    <row r="69" ht="19" customHeight="1" spans="1:21">
+    <row r="69" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21">
         <v>65</v>
       </c>
@@ -4618,7 +4001,7 @@
       <c r="T69" s="24"/>
       <c r="U69" s="24"/>
     </row>
-    <row r="70" ht="19" customHeight="1" spans="1:21">
+    <row r="70" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21">
         <v>66</v>
       </c>
@@ -4659,7 +4042,7 @@
         <v>24</v>
       </c>
       <c r="P70" s="13">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="Q70" s="13">
         <v>0.25</v>
@@ -4669,7 +4052,7 @@
       <c r="T70" s="24"/>
       <c r="U70" s="24"/>
     </row>
-    <row r="71" ht="19" customHeight="1" spans="1:21">
+    <row r="71" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21">
         <v>67</v>
       </c>
@@ -4712,7 +4095,7 @@
       <c r="T71" s="24"/>
       <c r="U71" s="24"/>
     </row>
-    <row r="72" ht="19" customHeight="1" spans="1:21">
+    <row r="72" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21">
         <v>68</v>
       </c>
@@ -4755,7 +4138,7 @@
       <c r="T72" s="24"/>
       <c r="U72" s="24"/>
     </row>
-    <row r="73" ht="19" customHeight="1" spans="1:21">
+    <row r="73" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="21">
         <v>69</v>
       </c>
@@ -4804,7 +4187,7 @@
       <c r="T73" s="24"/>
       <c r="U73" s="24"/>
     </row>
-    <row r="74" ht="19" customHeight="1" spans="1:21">
+    <row r="74" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21">
         <v>70</v>
       </c>
@@ -4853,7 +4236,7 @@
       <c r="T74" s="24"/>
       <c r="U74" s="24"/>
     </row>
-    <row r="75" ht="19" customHeight="1" spans="1:21">
+    <row r="75" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21">
         <v>71</v>
       </c>
@@ -4894,7 +4277,7 @@
       <c r="T75" s="24"/>
       <c r="U75" s="24"/>
     </row>
-    <row r="76" ht="19" customHeight="1" spans="1:21">
+    <row r="76" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21">
         <v>72</v>
       </c>
@@ -4945,7 +4328,7 @@
       <c r="T76" s="24"/>
       <c r="U76" s="24"/>
     </row>
-    <row r="77" ht="19" customHeight="1" spans="1:21">
+    <row r="77" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21">
         <v>73</v>
       </c>
@@ -4988,7 +4371,7 @@
       <c r="T77" s="24"/>
       <c r="U77" s="24"/>
     </row>
-    <row r="78" ht="19" customHeight="1" spans="1:21">
+    <row r="78" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21">
         <v>74</v>
       </c>
@@ -5031,7 +4414,7 @@
       <c r="T78" s="24"/>
       <c r="U78" s="24"/>
     </row>
-    <row r="79" ht="19" customHeight="1" spans="1:21">
+    <row r="79" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
         <v>75</v>
       </c>
@@ -5072,7 +4455,7 @@
         <v>24</v>
       </c>
       <c r="P79" s="13">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q79" s="13">
         <v>0.25</v>
@@ -5082,7 +4465,7 @@
       <c r="T79" s="24"/>
       <c r="U79" s="24"/>
     </row>
-    <row r="80" ht="19" customHeight="1" spans="1:21">
+    <row r="80" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21">
         <v>76</v>
       </c>
@@ -5125,7 +4508,7 @@
       <c r="T80" s="24"/>
       <c r="U80" s="24"/>
     </row>
-    <row r="81" ht="19" customHeight="1" spans="1:21">
+    <row r="81" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21">
         <v>77</v>
       </c>
@@ -5174,7 +4557,7 @@
       <c r="T81" s="24"/>
       <c r="U81" s="24"/>
     </row>
-    <row r="82" ht="19" customHeight="1" spans="1:21">
+    <row r="82" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21">
         <v>78</v>
       </c>
@@ -5213,7 +4596,7 @@
       <c r="T82" s="24"/>
       <c r="U82" s="24"/>
     </row>
-    <row r="83" ht="19" customHeight="1" spans="1:21">
+    <row r="83" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21">
         <v>79</v>
       </c>
@@ -5252,7 +4635,7 @@
       <c r="T83" s="24"/>
       <c r="U83" s="24"/>
     </row>
-    <row r="84" ht="19" customHeight="1" spans="1:21">
+    <row r="84" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21">
         <v>80</v>
       </c>
@@ -5301,7 +4684,7 @@
       <c r="T84" s="24"/>
       <c r="U84" s="24"/>
     </row>
-    <row r="85" ht="19" customHeight="1" spans="1:21">
+    <row r="85" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>81</v>
       </c>
@@ -5348,7 +4731,7 @@
       <c r="T85" s="18"/>
       <c r="U85" s="18"/>
     </row>
-    <row r="86" ht="19" customHeight="1" spans="1:21">
+    <row r="86" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>82</v>
       </c>
@@ -5385,7 +4768,7 @@
       <c r="T86" s="18"/>
       <c r="U86" s="18"/>
     </row>
-    <row r="87" ht="19" customHeight="1" spans="1:21">
+    <row r="87" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>83</v>
       </c>
@@ -5426,7 +4809,7 @@
       <c r="T87" s="18"/>
       <c r="U87" s="18"/>
     </row>
-    <row r="88" ht="19" customHeight="1" spans="1:21">
+    <row r="88" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>84</v>
       </c>
@@ -5467,7 +4850,7 @@
       <c r="T88" s="18"/>
       <c r="U88" s="18"/>
     </row>
-    <row r="89" ht="19" customHeight="1" spans="1:21">
+    <row r="89" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>85</v>
       </c>
@@ -5508,7 +4891,7 @@
       <c r="T89" s="18"/>
       <c r="U89" s="18"/>
     </row>
-    <row r="90" ht="19" customHeight="1" spans="1:21">
+    <row r="90" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>86</v>
       </c>
@@ -5559,7 +4942,7 @@
       <c r="T90" s="18"/>
       <c r="U90" s="18"/>
     </row>
-    <row r="91" ht="19" customHeight="1" spans="1:21">
+    <row r="91" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>87</v>
       </c>
@@ -5600,7 +4983,7 @@
       <c r="T91" s="18"/>
       <c r="U91" s="18"/>
     </row>
-    <row r="92" ht="19" customHeight="1" spans="1:21">
+    <row r="92" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>88</v>
       </c>
@@ -5641,7 +5024,7 @@
       <c r="T92" s="18"/>
       <c r="U92" s="18"/>
     </row>
-    <row r="93" ht="19" customHeight="1" spans="1:21">
+    <row r="93" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>89</v>
       </c>
@@ -5682,7 +5065,7 @@
       <c r="T93" s="18"/>
       <c r="U93" s="18"/>
     </row>
-    <row r="94" ht="19" customHeight="1" spans="1:21">
+    <row r="94" spans="1:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>90</v>
       </c>
@@ -5724,8 +5107,8 @@
       <c r="U94" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/battleworld/Excel/MotionEffect_效果表.xlsx
+++ b/battleworld/Excel/MotionEffect_效果表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB99199-B9E8-487D-B216-47F730F9B175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF606DCB-270E-47CA-9A5D-88A77040FCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -861,10 +861,10 @@
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T51" sqref="T51"/>
+      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2057,7 +2057,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="5">
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5">
@@ -2102,7 +2102,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="5">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="5">
@@ -2147,7 +2147,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="5">
-        <v>0.8</v>
+        <v>0.27</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="5">
